--- a/DOM_Banner/output/dept_banner/Sangeetha Murugapandian_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sangeetha Murugapandian_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,538 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Mohanad Al-Obaidi, Ahmet B. Gungor, Saman Nematollahi, Tirdad T. Zangeneh, Edward J. Bedrick, Katherine M. Johnson, Nicole Adegbija, Ruhaniyah Alam, Pooja Rangan, C. William Heise, Venkatesh Kumar Ariyamuthu, Aneesha Shetty, Abd Assalam Qannus, Sangeetha Murugapandian, Mehmet Ayvaci, Prince Mohan Anand, Bekir Tanrıöver</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223491415</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Effectiveness of Casirivimab-Imdevimab Monoclonal Antibody Treatment Among High-Risk Patients With Severe Acute Respiratory Syndrome Coronavirus 2 B.1.617.2 (Delta Variant) Infection</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5045990380", "https://openalex.org/A5011527972", "https://openalex.org/A5007528296", "https://openalex.org/A5076993071", "https://openalex.org/A5014060810", "https://openalex.org/A5082568455", "https://openalex.org/A5036298217", "https://openalex.org/A5080536354", "https://openalex.org/A5081587230", "https://openalex.org/A5033051596", "https://openalex.org/A5022492748", "https://openalex.org/A5017534571", "https://openalex.org/A5059968219", "https://openalex.org/A5070439382", 
-"https://openalex.org/A5077759641", "https://openalex.org/A5048245036", "https://openalex.org/A5016874418"), au_display_name = c("Mohanad Al-Obaidi", "Ahmet B. Gungor", "Saman Nematollahi", "Tirdad T. Zangeneh", "Edward J. Bedrick", "Katherine M. Johnson", "Nicole Adegbija", "Ruhaniyah Alam", "Pooja Rangan", "C. William Heise", "Venkatesh Kumar Ariyamuthu", "Aneesha Shetty", "Abd Assalam Qannus", "Sangeetha Murugapandian", "Mehmet Ayvaci", "Prince Mohan Anand", "Bekir Tanrıöver"), au_orcid = c("https://orcid.org/0000-0002-5189-6594", 
-NA, "https://orcid.org/0000-0002-6910-1120", "https://orcid.org/0000-0002-9035-2952", NA, "https://orcid.org/0000-0001-9047-9964", NA, NA, NA, "https://orcid.org/0000-0002-4795-1060", NA, NA, NA, "https://orcid.org/0000-0002-9145-5283", "https://orcid.org/0000-0001-6997-1639", "https://orcid.org/0000-0001-7881-2162", "https://orcid.org/0000-0002-2378-9302"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA", "Division of Nephrology, Banner University Medical Center , Tucson, Arizona , USA", "Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA", "Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA", "Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, USA", 
-"Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA", "Department of Surgery, The Banner University Medical Center, Tucson, Arizona, USA", "Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA", "Department of Medicine, Banner University Medical Center Phoenix, Phoenix, Arizona, USA", "Division of Clinical Data Analytics and Decision Support, Department of Medicine, College of Medicine – Phoenix, University of Arizona, Phoenix, Arizona, USA", 
-"Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA", "Information Systems, Naveen Jindal School of Management, The University of Texas at Dallas, Dallas, Texas, USA", "Medical University of South Carolina, Lancaster, South Carolina, USA", 
-"Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210103827", "https://openalex.org/I138006243", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I162577319", "https://openalex.org/I9146737", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "Banner - University Medical Center Tucson", "University of Arizona", "University of Arizona", "University of Arizona", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", 
-"Banner - University Medical Center Phoenix", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "The University of Texas at Dallas", "University of South Carolina Lancaster", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", 
-"https://ror.org/01cjjjf51", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/049emcs32", "https://ror.org/0289me815", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "healthcare", "education", "education", "education", "healthcare", "healthcare", 
-"healthcare", "healthcare", "education", "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", 
-"https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I2802412784, https://openalex.org/I4210103827", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I162577319, https://openalex.org/I16452829", 
-"https://openalex.org/I9146737", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abstract Summary Retrospective analysis of the post–propensity score (PS)–matched cohort of 8426 outpatients balanced in clinical and demographic covariates showed that treatment with casirivimab-imdevimab monoclonal antibody was effective against the SARS-CoV-2 Delta variant to reduce hospitalization, mortality, and intensive care unit admission rates within 30 days. Background Real-world data on the effectiveness of neutralizing casirivimab-imdevimab monoclonal antibody (Cas-Imd mAb) against severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection among high-risk patients may inform the response to future SARS-CoV-2 variants. Methods This study covers an observational retrospective data analysis in Banner Health Care System sites, mainly in Arizona. During the study period, the prevalence of SARS-CoV-2 Delta variant was between 95% and 100%. Of 29 635 patients who tested positive for coronavirus disease 2019 (COVID-19) between 1 August 2021 and 30 October 2021, in the Banner Health Care System, the study cohort was split into 4213 adult patients who received Cas-Imd mAb (1200 mg) treatment compared to a PS-matched 4213 untreated patients. The primary outcomes were the incidence of all-cause hospitalization, intensive care unit (ICU) admission, and mortality within 30 days of Cas-Imd mAb administration or Delta variant infection. Results Compared to the PS-matched untreated cohort, the Cas-Imd mAb cohort had significantly lower all-cause hospitalization (4.2% vs 17.6%; difference in percentages, −13.4 [95% confidence interval {CI}, −14.7 to −12.0]; P &amp;amp;lt; .001), ICU admission (0.3% vs 2.8%; difference, −2.4 [95% CI, −3.0 to −1.9]; P &amp;amp;lt; .001), and mortality (0.2% vs 2.0%; difference, −1.8 [95% CI, −2.3 to −1.3]; P &amp;amp;lt; .001) within 30 days. The Cas-Imd mAb treatment was associated with lower rate of hospitalization (hazard ratio [HR], 0.22 [95% CI, .19–.26]; P &amp;amp;lt; .001) and mortality (HR, 0.11 [95% CI, .06–.21]; P &amp;amp;lt; .001). Conclusions Cas-Imd mAb treatment was associated with a lower hospitalization rate, ICU admission, and mortality within 30 days among patients infected with the SARS-CoV-2 Delta variant.</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Open Forum Infectious Diseases</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2735126445</t>
+          <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2328-8957</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35791354</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://academic.oup.com/ofid/article-pdf/9/7/ofac186/45028855/ofac186.pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://academic.oup.com/ofid/article-pdf/9/7/ofac186/45028855/ofac186.pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4223491415</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4223491415", doi = "https://doi.org/10.1093/ofid/ofac186", pmid = "https://pubmed.ncbi.nlm.nih.gov/35791354")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/ofid/ofac186</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2000445173", "https://openalex.org/W2122771444", "https://openalex.org/W2152849583", "https://openalex.org/W2793811202", "https://openalex.org/W3008443627", "https://openalex.org/W3028583791", "https://openalex.org/W3111431752", "https://openalex.org/W3131688063", "https://openalex.org/W3161034134", "https://openalex.org/W3182094313", "https://openalex.org/W3184172540", "https://openalex.org/W3185801930", "https://openalex.org/W3193601449", "https://openalex.org/W3198860035", 
-"https://openalex.org/W3200130214", "https://openalex.org/W3200299601", "https://openalex.org/W3208556307", "https://openalex.org/W3212357575", "https://openalex.org/W4205329284", "https://openalex.org/W4212988737", "https://openalex.org/W4225505755", "https://openalex.org/W4225826670", "https://openalex.org/W4225854071", "https://openalex.org/W4226004814", "https://openalex.org/W4237585208")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2118157559", "https://openalex.org/W2559287584", "https://openalex.org/W2146312256", "https://openalex.org/W3172893480", "https://openalex.org/W1992459022", "https://openalex.org/W2122992204", "https://openalex.org/W1990858588", "https://openalex.org/W2320301988", "https://openalex.org/W2098948610", "https://openalex.org/W3025172794")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Srilekha Sridhara, Ahmet B. Gungor, Halil Erol, Mohanad Al-Obaidi, Tirdad T. Zangeneh, Edward J. Bedrick, Venkatesh Kumar Ariyamuthu, Aneesha Shetty, Abd Assalam Qannus, Katherine Mendoza, Sangeetha Murugapandian, Gaurav Gupta, Bekir Tanrıöver</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311814760</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Lack of effectiveness of Bebtelovimab Monoclonal Antibody Among High-Risk Patients with SARS-Cov-2 Omicron During BA.2, BA.2.12.1 and BA.5 Subvariants Dominated Era</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5044512783", "https://openalex.org/A5011527972", "https://openalex.org/A5020624718", "https://openalex.org/A5045990380", "https://openalex.org/A5076993071", "https://openalex.org/A5014060810", "https://openalex.org/A5022492748", "https://openalex.org/A5017534571", "https://openalex.org/A5059968219", "https://openalex.org/A5016503578", "https://openalex.org/A5070439382", "https://openalex.org/A5044372095", "https://openalex.org/A5016874418"), au_display_name = c("Srilekha Sridhara", 
-"Ahmet B. Gungor", "Halil Erol", "Mohanad Al-Obaidi", "Tirdad T. Zangeneh", "Edward J. Bedrick", "Venkatesh Kumar Ariyamuthu", "Aneesha Shetty", "Abd Assalam Qannus", "Katherine Mendoza", "Sangeetha Murugapandian", "Gaurav Gupta", "Bekir Tanrıöver"), au_orcid = c(NA, NA, "https://orcid.org/0000-0001-5760-4276", "https://orcid.org/0000-0002-5189-6594", "https://orcid.org/0000-0002-9035-2952", NA, NA, NA, NA, "https://orcid.org/0000-0001-9618-2336", "https://orcid.org/0000-0002-9145-5283", "https://orcid.org/0000-0001-7941-0229", 
-"https://orcid.org/0000-0002-2378-9302"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", 
-"Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", 
-"Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A."), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I184840846", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "Banner - University Medical Center Tucson", "University of Arizona", "University of Arizona", "University of Arizona", 
-"University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "Virginia Commonwealth University", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", 
-"https://ror.org/03m2x1q45", "https://ror.org/02nkdxk79", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "healthcare", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I184840846", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ABSTRACT Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) Omicron subvariants are expected to be resistant to Bebtelovimab (BEB) monoclonal antibody (MAb) and the real-world experience regarding its effectiveness is scarce. This retrospective cohort study reports a data analysis in Banner Healthcare System (a large not-for-profit organization) between 4/5/2022 and 8/1/2022 and included 19,778 Coronavirus disease-19 (COVID-19) positive (by PCR or direct antigen testing) patients who were selected from Cerner-Electronic Health Record after the exclusions criteria were met. The study index date for cohort was determined as the date of BEB MAb administration or the date of the first positive COVID-19 testing. The cohort consist of COVID-19 infected patients who received BEB MAb (N=1,091) compared to propensity score (PS) matched control (N=1,091). The primary outcome was the incidence of 30-day all-cause hospitalization and/or mortality. All statistical analyses were conducted on the paired (matched) dataset. For the primary outcome, the event counts and percentages were reported. Ninety-five percent Clopper-Pearson confidence intervals for percentages were computed. The study cohorts were 1:1 propensity matched without replacement across 26 covariates using an optimal matching algorithm that minimizes the sum of absolute pairwise distance across the matched sample after fitting and using logistic regression as the distance function. The pairs were matched exactly on patient vaccination status, BMI group, age group and diabetes status. Compared to the PS matched control group (2.6%; 95% confidence interval [CI]: 1.7%, 3.7%), BEB MAb use (2.2%; 95% CI: 1.4%, 3.3%) did not significantly reduce the incidence of the primary outcome (p=0.67). In the subgroup analysis, we observed similar no-difference trends regarding the primary outcomes for the propensity rematched BEB MAb treated and untreated groups, stratified by patient vaccination status, age (&amp;lt;65 years or ≥65), and immunocompromised status (patients with HIV/AIDS or solid organ transplants or malignancy including lymphoproliferative disorder). The number needed to treat (1/0.026-0.022) with BEB MAb was 250 to avoid one hospitalization and/or death over 30 days. The BEB MAb use lacked efficacy in patients with SARS-CoV-2 Omicron subvariants (mainly BA.2, BA.2.12.1, and BA.5) in the Banner Healthcare System in the Southwestern United States.</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306400573</t>
+          <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/12/07/2022.12.06.22283183.full.pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/12/07/2022.12.06.22283183.full.pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4311814760</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4311814760", doi = "https://doi.org/10.1101/2022.12.06.22283183")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2022.12.06.22283183</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4220774106", "https://openalex.org/W4220886953", "https://openalex.org/W4220970752", "https://openalex.org/W4225647476", "https://openalex.org/W4283026725", "https://openalex.org/W4285727819", "https://openalex.org/W4286009139", "https://openalex.org/W4295899573", "https://openalex.org/W4296211388", "https://openalex.org/W4296702018", "https://openalex.org/W4298086777", "https://openalex.org/W4298394671", "https://openalex.org/W4310576518")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2793335702", "https://openalex.org/W4210646467", "https://openalex.org/W2154948599", "https://openalex.org/W2913113213", "https://openalex.org/W4254083861", "https://openalex.org/W2090763189", "https://openalex.org/W2792027122", "https://openalex.org/W2792916732", "https://openalex.org/W3114266572", "https://openalex.org/W4240976644")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Sangeetha Murugapandian_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sangeetha Murugapandian_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, Banner University Medical Center , Tucson, Arizona , USA; Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, USA; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA; Department of Surgery, The Banner University Medical Center, Tucson, Arizona, USA; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA; Department of Medicine, Banner University Medical Center Phoenix, Phoenix, Arizona, USA; Division of Clinical Data Analytics and Decision Support, Department of Medicine, College of Medicine – Phoenix, University of Arizona, Phoenix, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Information Systems, Naveen Jindal School of Management, The University of Texas at Dallas, Dallas, Texas, USA; Medical University of South Carolina, Lancaster, South Carolina, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223491415</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Effectiveness of Casirivimab-Imdevimab Monoclonal Antibody Treatment Among High-Risk Patients With Severe Acute Respiratory Syndrome Coronavirus 2 B.1.617.2 (Delta Variant) Infection</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35791354</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311814760</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Lack of effectiveness of Bebtelovimab Monoclonal Antibody Among High-Risk Patients with SARS-Cov-2 Omicron During BA.2, BA.2.12.1 and BA.5 Subvariants Dominated Era</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-12-07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
